--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,7 +264,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -317,17 +317,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>MedicationRequest.implicitRules</t>
   </si>
   <si>
@@ -347,9 +340,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.language</t>
   </si>
   <si>
@@ -427,6 +417,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>MedicationRequest.extension</t>
   </si>
   <si>
@@ -447,16 +440,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -573,9 +556,6 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>MedicationRequest.intent</t>
@@ -644,9 +624,6 @@
   </si>
   <si>
     <t>Indicates how quickly the Medication Request should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Identifies the level of importance to be assigned to actioning the request.</t>
@@ -758,10 +735,6 @@
     <t>The subject on a medication request is mandatory.  For the secondary use case where the actual subject is not provided, there still must be an anonymized subject specified.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Request.subject</t>
   </si>
   <si>
@@ -820,9 +793,6 @@
     <t>Include additional information (for example, patient height and weight) that supports the ordering of the medication.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Request.supportingInfo</t>
   </si>
   <si>
@@ -1009,9 +979,6 @@
     <t>The URL pointing to a protocol, guideline, orderset, or other definition that is adhered to in whole or in part by this MedicationRequest.</t>
   </si>
   <si>
-    <t>see [Canonical References](http://hl7.org/fhir/R4/references.html#canonical)</t>
-  </si>
-  <si>
     <t>Request.instantiates</t>
   </si>
   <si>
@@ -1025,9 +992,6 @@
   </si>
   <si>
     <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this MedicationRequest.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>MedicationRequest.basedOn</t>
@@ -1067,9 +1031,6 @@
     <t>.outboundRelationship(typeCode=COMP].target[classCode=SBADM, moodCode=INT].id</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>MedicationRequest.courseOfTherapyType</t>
   </si>
   <si>
@@ -1123,9 +1084,6 @@
     <t>Extra information about the prescription that could not be conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
     <t>Request.note</t>
   </si>
   <si>
@@ -1192,6 +1150,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
@@ -1255,17 +1216,7 @@
     <t>The amount or quantity to provide as part of the first dispense.</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
     <t>Supply.quantity[moodCode=RQO]</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
@@ -1281,19 +1232,6 @@
     <t>The length of time that the first dispense is expected to last.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Appropriate units for Duration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}drt-1:There SHALL be a code if there is a value and it SHALL be an expression of time.  If system is present, it SHALL be UCUM. {code.exists() implies ((system = %ucum) and value.exists())}</t>
-  </si>
-  <si>
     <t>Supply.effectivetime[moodCode=RQO]</t>
   </si>
   <si>
@@ -1325,17 +1263,10 @@
     <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
   </si>
   <si>
     <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
@@ -1474,9 +1405,6 @@
   </si>
   <si>
     <t>Indicates the reason for the substitution, or why substitution must or must not be performed.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -1893,7 +1821,7 @@
     <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2358,11 +2286,11 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
@@ -2370,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>19</v>
@@ -2381,10 +2309,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2407,16 +2335,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2466,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2475,11 +2403,11 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
       </c>
@@ -2487,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>19</v>
@@ -2498,10 +2426,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2524,16 +2452,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2559,31 +2487,31 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2592,11 +2520,11 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
@@ -2604,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>19</v>
@@ -2615,14 +2543,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2641,16 +2569,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2700,7 +2628,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2709,11 +2637,11 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
@@ -2721,7 +2649,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>19</v>
@@ -2732,14 +2660,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2758,16 +2686,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2817,7 +2745,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2838,7 +2766,7 @@
         <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>19</v>
@@ -2849,14 +2777,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2875,16 +2803,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2922,19 +2850,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2943,10 +2871,10 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
@@ -2955,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>19</v>
@@ -2966,14 +2894,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2992,19 +2920,19 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -3041,19 +2969,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3062,10 +2990,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
@@ -3074,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>19</v>
@@ -3085,10 +3013,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3111,16 +3039,16 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3170,7 +3098,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3179,33 +3107,33 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3228,16 +3156,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3263,13 +3191,13 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>19</v>
@@ -3287,7 +3215,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>87</v>
@@ -3296,22 +3224,22 @@
         <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>19</v>
@@ -3319,10 +3247,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3345,16 +3273,16 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3380,13 +3308,13 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -3404,7 +3332,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3413,33 +3341,33 @@
         <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3462,16 +3390,16 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3497,13 +3425,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3521,7 +3449,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>87</v>
@@ -3530,22 +3458,22 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>19</v>
@@ -3553,10 +3481,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3579,16 +3507,16 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3614,13 +3542,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3638,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3647,33 +3575,33 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3696,17 +3624,15 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3731,13 +3657,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3755,7 +3681,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3764,22 +3690,22 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>19</v>
@@ -3787,10 +3713,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3813,16 +3739,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3872,7 +3798,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3881,11 +3807,11 @@
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3893,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>19</v>
@@ -3904,10 +3830,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3930,13 +3856,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3987,7 +3913,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3996,11 +3922,11 @@
         <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
       </c>
@@ -4008,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>19</v>
@@ -4019,10 +3945,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4045,16 +3971,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4080,13 +4006,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -4104,7 +4030,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
@@ -4113,33 +4039,33 @@
         <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4162,16 +4088,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4221,7 +4147,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>87</v>
@@ -4230,33 +4156,33 @@
         <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4279,16 +4205,16 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4338,7 +4264,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4347,33 +4273,33 @@
         <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4396,17 +4322,15 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4455,7 +4379,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4464,22 +4388,22 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>19</v>
@@ -4487,10 +4411,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4513,13 +4437,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4570,7 +4494,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4579,33 +4503,33 @@
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4628,17 +4552,15 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4687,7 +4609,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4696,22 +4618,22 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>19</v>
@@ -4719,10 +4641,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4745,17 +4667,15 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4804,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4813,22 +4733,22 @@
         <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>19</v>
@@ -4836,10 +4756,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4862,16 +4782,16 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4897,13 +4817,13 @@
         <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>19</v>
@@ -4921,7 +4841,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4930,33 +4850,33 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4979,17 +4899,15 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5038,7 +4956,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5047,11 +4965,11 @@
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
@@ -5059,10 +4977,10 @@
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -5070,10 +4988,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5096,16 +5014,16 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5131,13 +5049,13 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>19</v>
@@ -5155,7 +5073,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5164,33 +5082,33 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5213,16 +5131,16 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5272,7 +5190,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5281,22 +5199,22 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
@@ -5304,10 +5222,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5330,17 +5248,15 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5389,7 +5305,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5398,19 +5314,19 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>19</v>
@@ -5421,10 +5337,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5447,17 +5363,15 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5506,7 +5420,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5515,11 +5429,11 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5527,7 +5441,7 @@
         <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>19</v>
@@ -5538,10 +5452,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5564,17 +5478,15 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5623,7 +5535,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5632,19 +5544,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -5655,10 +5567,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5681,17 +5593,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5740,7 +5652,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5749,33 +5661,33 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>334</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5798,16 +5710,16 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5833,13 +5745,13 @@
         <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>19</v>
@@ -5857,7 +5769,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5866,11 +5778,11 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
@@ -5878,21 +5790,21 @@
         <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5915,17 +5827,15 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5974,7 +5884,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5983,19 +5893,19 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>19</v>
@@ -6006,10 +5916,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6032,17 +5942,15 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -6091,7 +5999,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6100,33 +6008,33 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6149,16 +6057,16 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6208,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6217,19 +6125,19 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>19</v>
@@ -6240,10 +6148,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6266,13 +6174,13 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6323,7 +6231,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6332,19 +6240,19 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>19</v>
@@ -6355,10 +6263,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6381,13 +6289,13 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6438,7 +6346,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6459,7 +6367,7 @@
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>19</v>
@@ -6470,14 +6378,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6496,16 +6404,16 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6543,19 +6451,19 @@
         <v>19</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6564,10 +6472,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6576,7 +6484,7 @@
         <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>101</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>19</v>
@@ -6587,14 +6495,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6613,19 +6521,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6674,7 +6582,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6683,10 +6591,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -6695,7 +6603,7 @@
         <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -6706,10 +6614,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6732,16 +6640,16 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6791,7 +6699,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6800,11 +6708,11 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
@@ -6812,7 +6720,7 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -6823,10 +6731,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6849,13 +6757,13 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6906,7 +6814,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6927,7 +6835,7 @@
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>19</v>
@@ -6938,14 +6846,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6964,16 +6872,16 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7011,19 +6919,19 @@
         <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7032,10 +6940,10 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
@@ -7044,7 +6952,7 @@
         <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>101</v>
+        <v>361</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>19</v>
@@ -7055,14 +6963,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7081,19 +6989,19 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7142,7 +7050,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7151,10 +7059,10 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -7163,7 +7071,7 @@
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -7174,10 +7082,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7200,17 +7108,15 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7259,7 +7165,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7268,11 +7174,11 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
       </c>
@@ -7280,21 +7186,21 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>397</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7317,17 +7223,15 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7352,13 +7256,13 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -7376,7 +7280,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7385,11 +7289,11 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
@@ -7397,21 +7301,21 @@
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>397</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7434,17 +7338,15 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7469,13 +7371,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -7493,7 +7395,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7502,11 +7404,11 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7514,21 +7416,21 @@
         <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>397</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7551,19 +7453,19 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7612,7 +7514,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7621,33 +7523,33 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>419</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7670,16 +7572,16 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7729,7 +7631,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7738,33 +7640,33 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7787,17 +7689,15 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7846,7 +7746,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7855,33 +7755,33 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7904,16 +7804,16 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7939,13 +7839,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7963,7 +7863,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7972,33 +7872,33 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>397</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8021,17 +7921,15 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8080,7 +7978,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8089,11 +7987,11 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
@@ -8101,10 +7999,10 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>19</v>
@@ -8112,10 +8010,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8138,13 +8036,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8195,7 +8093,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8204,19 +8102,19 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -8227,10 +8125,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8253,13 +8151,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8310,7 +8208,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8331,7 +8229,7 @@
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>19</v>
@@ -8342,14 +8240,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8368,16 +8266,16 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8415,19 +8313,19 @@
         <v>19</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8436,10 +8334,10 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
@@ -8448,7 +8346,7 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>101</v>
+        <v>361</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8459,14 +8357,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8485,19 +8383,19 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8546,7 +8444,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8555,10 +8453,10 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8567,7 +8465,7 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -8578,10 +8476,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8604,16 +8502,16 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8639,13 +8537,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -8663,7 +8561,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -8672,33 +8570,33 @@
         <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8721,17 +8619,15 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8756,13 +8652,13 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
@@ -8780,7 +8676,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8789,33 +8685,33 @@
         <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8838,17 +8734,15 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8897,7 +8791,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8906,19 +8800,19 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK60" t="s" s="2">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -8929,14 +8823,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8955,16 +8849,16 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9014,7 +8908,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9023,11 +8917,11 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
@@ -9035,7 +8929,7 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
@@ -9046,10 +8940,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9072,16 +8966,16 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9131,7 +9025,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9140,19 +9034,19 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>19</v>
